--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_end.xlsx
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Lemme see. Tch, goddamned scratchy handwriting... Oh, look at that. It says “Mahuizzotia.”
+    <t xml:space="preserve">[name="Gavial"]  Lemme see. Tch, goddamned scratchy handwriting... Oh, look at that. It says 'Mahuizzotia.'
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  The music playing right now should be coming from those “speaker” things they left here. I think they also left behind some of their albums?
+    <t xml:space="preserve">[name="Tomimi"]  The music playing right now should be coming from those 'speaker' things they left here. I think they also left behind some of their albums?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_end.xlsx
@@ -812,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Gyuh! That... That reaper’s whirlwind... And that hairclip... Y-you’re Gavial!
+    <t xml:space="preserve">[name="Archosauria A"]  Gyuh! That... That reaper's whirlwind... And that hairclip... Y-you're Gavial!
 </t>
   </si>
   <si>
@@ -824,15 +824,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  But don’t get ahead of yourself, Gavial! Not even you could shake our faith in thick tails!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah, you’re such hot shit! Keep running!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, let’s move. I can sort them out the next time I see them.
+    <t xml:space="preserve">[name="Archosauria A"]  But don't get ahead of yourself, Gavial! Not even you could shake our faith in thick tails!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah, you're such hot shit! Keep running!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Doctor, let's move. I can sort them out the next time I see them.
 </t>
   </si>
   <si>
@@ -848,11 +848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  But nah, now I just think they’re kind of cute. Right, Doctor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="No idea what you’re saying, but I agree.;......;Cuter than you breaking them in half.",values="1;2;3")]
+    <t xml:space="preserve">[name="Gavial"]  But nah, now I just think they're kind of cute. Right, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="No idea what you're saying, but I agree.;......;Cuter than you breaking them in half.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -864,19 +864,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, don’t tell me you’re a thick tail lover?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  ‘Cause we’re not gonna see eye-to-eye on that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hah! Well, thinking they’re cute won’t stop me beating the tar outta them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  They’re not... uh... what’s the word...? Mutually exclusive!
+    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, don't tell me you're a thick tail lover?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  'Cause we're not gonna see eye-to-eye on that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hah! Well, thinking they're cute won't stop me beating the tar outta them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  They're not... uh... what's the word...? Mutually exclusive!
 </t>
   </si>
   <si>
@@ -892,7 +892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I go away for a couple years and I come back to find your tail’s even fatter.
+    <t xml:space="preserve">[name="Gavial"]  I go away for a couple years and I come back to find your tail's even fatter.
 </t>
   </si>
   <si>
@@ -900,15 +900,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Gonna try and tell me you’re with thick tails, too?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  No no no no! It’s not like I wanted it to grow so thick!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  *Whimper* I want a nice, thin tail just like Gavial’s...
+    <t xml:space="preserve">[name="Gavial"]  Gonna try and tell me you're with thick tails, too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  No no no no! It's not like I wanted it to grow so thick!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  *Whimper* I want a nice, thin tail just like Gavial's...
 </t>
   </si>
   <si>
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Operators are, uh... Well, I guess it’s a job. Like me, I’m a Medic Operator.
+    <t xml:space="preserve">[name="Gavial"]  Operators are, uh... Well, I guess it's a job. Like me, I'm a Medic Operator.
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Yep! I’ve been disciplining myself every day for you, Gavial, so one day you’d come back!
+    <t xml:space="preserve">[name="Tomimi"]  Yep! I've been disciplining myself every day for you, Gavial, so one day you'd come back!
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Cool. Let’s keep moving then. Do I remember the Temple’s just ahead?
+    <t xml:space="preserve">[name="Gavial"]  Cool. Let's keep moving then. Do I remember the Temple's just ahead?
 </t>
   </si>
   <si>
@@ -968,11 +968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Eunectes has to be the Great Chief, c’mon. Look at how strong the whole tribe is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Yeah, and she’s top of the pile. Everyone said if not Gavial, then Eunectes, and now Gavial’s gone...
+    <t xml:space="preserve">[name="Archosauria A"]  Eunectes has to be the Great Chief, c'mon. Look at how strong the whole tribe is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  Yeah, and she's top of the pile. Everyone said if not Gavial, then Eunectes, and now Gavial's gone...
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Hey, Gavial! You’re finally back!
+    <t xml:space="preserve">[name="Archosauria A"]  Hey, Gavial! You're finally back!
 </t>
   </si>
   <si>
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Hey, that feather on your waist is nice! Where’d it come from?
+    <t xml:space="preserve">[name="Archosauria A"]  Hey, that feather on your waist is nice! Where'd it come from?
 </t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Too bad. Inam hates crowds. But if there’s anything you guys want, you can go through me!
+    <t xml:space="preserve">[name="Archosauria B"]  Too bad. Inam hates crowds. But if there's anything you guys want, you can go through me!
 </t>
   </si>
   <si>
@@ -1012,15 +1012,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria C"]  Is that... wait, it’s Gavial!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  She’s actually back? !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  Gavial! So you weren’t dead!
+    <t xml:space="preserve">[name="Archosauria C"]  Is that... wait, it's Gavial!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  She's actually back? !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  Gavial! So you weren't dead!
 </t>
   </si>
   <si>
@@ -1028,23 +1028,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Brother, come on. Stop trying to make a show. You’ve got the Stone Disease and all. Just go back home and lie down, okay?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Who cares! What’s a little disease in the face of the ceremony?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  A little disease is still disease! And think about how bad it’d be for us if you went out there and showed everyone the rocks growing on your tail!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Look, Gavial might be gone, but now Zumama’s sure to be the next Great Chief!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  That’s the part I care about! I need to witness the moment Zumama becomes Chief!
+    <t xml:space="preserve">[name="Archosauria A"]  Brother, come on. Stop trying to make a show. You've got the Stone Disease and all. Just go back home and lie down, okay?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  Who cares! What's a little disease in the face of the ceremony?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  A little disease is still disease! And think about how bad it'd be for us if you went out there and showed everyone the rocks growing on your tail!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  Look, Gavial might be gone, but now Zumama's sure to be the next Great Chief!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  That's the part I care about! I need to witness the moment Zumama becomes Chief!
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  It couldn’t be. Is that... Gavial? !
+    <t xml:space="preserve">[name="Archosauria A"]  It couldn't be. Is that... Gavial? !
 </t>
   </si>
   <si>
@@ -1060,19 +1060,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  ...I’m sorry, but now I HAVE to see the ceremony.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Yeah. I don’t think anyone can miss this now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Huh? Those two look like they’re from the Eunectes tribe...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  It really is Gavial! You’re finally back!
+    <t xml:space="preserve">[name="Archosauria B"]  ...I'm sorry, but now I HAVE to see the ceremony.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  Yeah. I don't think anyone can miss this now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Huh? Those two look like they're from the Eunectes tribe...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  It really is Gavial! You're finally back!
 </t>
   </si>
   <si>
@@ -1080,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria C"]  Hey, everyone, look! It’s Gavial!
+    <t xml:space="preserve">[name="Archosauria C"]  Hey, everyone, look! It's Gavial!
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  We’re here.
+    <t xml:space="preserve">[name="Tomimi"]  We're here.
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Wait! Doctor, this is an AUS song, isn’t it?!
+    <t xml:space="preserve">[name="Gavial"]  Wait! Doctor, this is an AUS song, isn't it?!
 </t>
   </si>
   <si>
@@ -1128,15 +1128,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m not totally sure myself, but I’ve definitely heard people playing this before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Snap out of it, Doctor! Don’t just walk in!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Lots of AUS fans at Rhodes Island. That’s gotta be it.
+    <t xml:space="preserve">[name="Gavial"]  I'm not totally sure myself, but I've definitely heard people playing this before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Snap out of it, Doctor! Don't just walk in!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Lots of AUS fans at Rhodes Island. That's gotta be it.
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  They held a concert at Inam’s tribe first. After that, a whole lot of Tiacauh started treating them like heralds of the Mahuizzotia.
+    <t xml:space="preserve">[name="Tomimi"]  They held a concert at Inam's tribe first. After that, a whole lot of Tiacauh started treating them like heralds of the Mahuizzotia.
 </t>
   </si>
   <si>
@@ -1172,11 +1172,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  And then suddenly one day, they disappeared. Everyone said they’d gone back to their ancestors’ embrace.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  But I knew they’d only left, same as Gavial had.
+    <t xml:space="preserve">[name="Tomimi"]  And then suddenly one day, they disappeared. Everyone said they'd gone back to their ancestors' embrace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  But I knew they'd only left, same as Gavial had.
 </t>
   </si>
   <si>
@@ -1188,19 +1188,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Yep. They need Arts to function, so only priests and shamans can actually use them, and most of them are in Inam’s tribe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hahaha! Now that’s a band of freewheelers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Can’t deny, their songs really get up in there. I haven’t even stepped in and they’ve got my blood running hot. I think I’m beginning to like them!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Let’s go, Doctor! We’re gonna hear some music and enjoy a hell of a show!
+    <t xml:space="preserve">[name="Tomimi"]  Yep. They need Arts to function, so only priests and shamans can actually use them, and most of them are in Inam's tribe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hahaha! Now that's a band of freewheelers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Can't deny, their songs really get up in there. I haven't even stepped in and they've got my blood running hot. I think I'm beginning to like them!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Let's go, Doctor! We're gonna hear some music and enjoy a hell of a show!
 </t>
   </si>
   <si>
